--- a/Sprint_3/BurndownChartForSprint3.xlsx
+++ b/Sprint_3/BurndownChartForSprint3.xlsx
@@ -361,11 +361,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="123305280"/>
-        <c:axId val="184967168"/>
+        <c:axId val="154511040"/>
+        <c:axId val="154511616"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="123305280"/>
+        <c:axId val="154511040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="14"/>
@@ -396,14 +396,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="184967168"/>
+        <c:crossAx val="154511616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2"/>
         <c:minorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="184967168"/>
+        <c:axId val="154511616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="80"/>
@@ -435,7 +435,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="123305280"/>
+        <c:crossAx val="154511040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10"/>
@@ -786,9 +786,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -827,9 +825,7 @@
         <f>C2-0</f>
         <v>78</v>
       </c>
-      <c r="D3" s="4">
-        <v>11</v>
-      </c>
+      <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
@@ -840,9 +836,7 @@
         <f>C3-0</f>
         <v>78</v>
       </c>
-      <c r="D4" s="2">
-        <v>12</v>
-      </c>
+      <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
@@ -853,9 +847,7 @@
         <f>C4-26</f>
         <v>52</v>
       </c>
-      <c r="D5" s="2">
-        <v>13</v>
-      </c>
+      <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -863,12 +855,10 @@
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="3">
-        <f t="shared" ref="C5:C16" si="0">C5-0</f>
+        <f t="shared" ref="C6:C14" si="0">C5-0</f>
         <v>52</v>
       </c>
-      <c r="D6" s="5">
-        <v>14</v>
-      </c>
+      <c r="D6" s="5"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
@@ -879,9 +869,7 @@
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="D7" s="5">
-        <v>15</v>
-      </c>
+      <c r="D7" s="5"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
@@ -892,9 +880,7 @@
         <f>C7-1</f>
         <v>51</v>
       </c>
-      <c r="D8" s="5">
-        <v>16</v>
-      </c>
+      <c r="D8" s="5"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
@@ -905,9 +891,7 @@
         <f>C8-1</f>
         <v>50</v>
       </c>
-      <c r="D9" s="5">
-        <v>17</v>
-      </c>
+      <c r="D9" s="5"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
@@ -918,9 +902,7 @@
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="D10" s="5">
-        <v>18</v>
-      </c>
+      <c r="D10" s="5"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
@@ -931,9 +913,7 @@
         <f>C10-2</f>
         <v>48</v>
       </c>
-      <c r="D11" s="5">
-        <v>19</v>
-      </c>
+      <c r="D11" s="5"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
@@ -944,9 +924,7 @@
         <f>C11-3</f>
         <v>45</v>
       </c>
-      <c r="D12" s="5">
-        <v>20</v>
-      </c>
+      <c r="D12" s="5"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
@@ -957,9 +935,7 @@
         <f>C12-12</f>
         <v>33</v>
       </c>
-      <c r="D13" s="5">
-        <v>21</v>
-      </c>
+      <c r="D13" s="5"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
@@ -970,9 +946,7 @@
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="D14" s="5">
-        <v>22</v>
-      </c>
+      <c r="D14" s="5"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
@@ -983,9 +957,7 @@
         <f>C14-11</f>
         <v>22</v>
       </c>
-      <c r="D15" s="5">
-        <v>23</v>
-      </c>
+      <c r="D15" s="5"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
@@ -998,9 +970,7 @@
         <f>C15-10</f>
         <v>12</v>
       </c>
-      <c r="D16" s="5">
-        <v>24</v>
-      </c>
+      <c r="D16" s="5"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
